--- a/csv/unbiased.xlsx
+++ b/csv/unbiased.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1577,6 +1577,1722 @@
         </is>
       </c>
     </row>
+    <row r="106">
+      <c r="A106">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/game-of-loans-is-winter-coming-for-homebuyers")</f>
+        <v/>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Game of Loans – is winter coming for homebuyers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/women-lag-behind-men-in-pension-planning")</f>
+        <v/>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Women lag behind men in pension planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/house-prices-spike-as-property-market-reshapes")</f>
+        <v/>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>House prices spike as property market reshapes</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/one-in-three-brits-don-t-know-how-much-pension-to-save")</f>
+        <v/>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>One in three Brits don't know how much pension to save</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/why-person-to-person-is-the-new-face-of-advice")</f>
+        <v/>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Person to person – the new face of advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/rishi-sunak-announces-stamp-duty-holiday")</f>
+        <v/>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>How the Stamp Duty holiday works for homebuyers and landlords</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/pensions-actually-richard-curtis-launches-drive-for-ethical-fund-investment")</f>
+        <v/>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pensions Actually: Richard Curtis launches drive for ethical fund investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/chancellor-to-call-time-on-the-state-pension-triple-lock")</f>
+        <v/>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Chancellor to call time on the state pension triple lock?</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/where-can-my-business-find-more-funding-in-lockdown")</f>
+        <v/>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Where can my business find more funding in lockdown?</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/has-lockdown-lifted-your-savings")</f>
+        <v/>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Has lockdown lifted your savings?</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/property-market-health-check-how-will-house-prices-move")</f>
+        <v/>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Property market health check: how will house prices move?</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/surge-in-demand-for-pension-advice-amid-covid-confusion")</f>
+        <v/>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Surge in demand for pension advice amid COVID confusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/buying-selling-and-remortgaging-property-after-the-lockdown")</f>
+        <v/>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Buying, selling and remortgaging property after the lockdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/the-50k-loan-to-help-your-small-business-bounce-back")</f>
+        <v/>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>The £50k loan to help your small business bounce back</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/remember-your-pension-in-your-self-assessment")</f>
+        <v/>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Remember your pension in your self-assessment!</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/covid-19-raises-pension-fraud-threat-level")</f>
+        <v/>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Pension scam risk increased by lockdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/the-property-market-fightback-begins")</f>
+        <v/>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>The property market fightback begins</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/why-it-s-time-to-stand-by-your-workplace-pension")</f>
+        <v/>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Why it’s time to stand by your workplace pension</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/COVID-business-loans-and-employee-furlough-scheme")</f>
+        <v/>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>New COVID help for businesses, employees and freelancers - but is it enough?</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/the-uk-property-market-freeze-what-it-means-for-you")</f>
+        <v/>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>The UK property market freeze – what it means for you</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/sort-out-your-finances-during-lockdown")</f>
+        <v/>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>The Lemonade Principle: making good use of your lockdown time</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/income-protection-the-ultimate-safety-net")</f>
+        <v/>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Income protection: the ultimate safety net</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/tips-for-small-businesses-on-surviving-coronavirus")</f>
+        <v/>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Tips for small businesses on surviving coronavirus</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/record-low-mortgage-rates-offer-silver-linings")</f>
+        <v/>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Record low mortgage rates offer silver linings</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-to-manage-your-pension-during-stock-market-slumps")</f>
+        <v/>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>How to manage your pension during stock market slumps</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-to-see-a-financial-adviser-while-self-isolating")</f>
+        <v/>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>How to see a financial adviser while in lockdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/pension-income-from-100k-pot")</f>
+        <v/>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>What pension income will my £100,000 pot buy me?</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/budget-1-of-2-what-does-it-mean-for-you")</f>
+        <v/>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Budget 2020 1 of 2 – what does it mean for you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/paratrooper-hero-finds-affordable-life-insurance")</f>
+        <v/>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>‘Shot twice in the head – but my adviser still found me life and critical illness insurance.’</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/10-ways-that-taxes-might-rise-in-budget-2020")</f>
+        <v/>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>10 ways that taxes might rise in Budget 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/pension-transfers-get-the-red-light-but-equity-release-speeds-ahead")</f>
+        <v/>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pension transfers get the red light – but equity release speeds ahead</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/could-higher-rate-pension-tax-relief-be-scrapped")</f>
+        <v/>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Could higher-rate pension tax relief be scrapped in the 2020 budget?</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/amazon-turns-to-goldman-to-expand-its-business-lending")</f>
+        <v/>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Amazon turns to Goldman to expand its business lending</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-financial-advice-can-make-you-lucky-in-love")</f>
+        <v/>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>How financial advice can make you lucky in love</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/7-ways-that-sex-shapes-your-attitude-to-money")</f>
+        <v/>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>7 ways that sex shapes your attitude to money</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/managing-your-money-in-brexit-britain")</f>
+        <v/>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Managing your money in Brexit Britain</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/decade-trend-gives-hope-to-first-time-buyers")</f>
+        <v/>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Decade trend gives hope to first-time buyers</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/how-to-build-a-10-year-buy-to-let-plan")</f>
+        <v/>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>How to build a 10-year buy-to-let plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/you-forgot-your-tax-return-again")</f>
+        <v/>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>'You forgot your tax return again...?'</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/uk-steps-closer-to-introducing-cdc-pension-schemes")</f>
+        <v/>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>UK steps closer to introducing CDC pension schemes</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/new-year-money-tips-2020")</f>
+        <v/>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>New Year money tips from the Unbiased experts</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/financial-advice-value-over-10-years")</f>
+        <v/>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Advice worth nearly £5k a year over a decade</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/2020-the-decade-you-decide")</f>
+        <v/>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2020: Make this the decade you decide</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/its-a-wonderful-life-of-advice")</f>
+        <v/>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>It’s A Wonderful Life of Advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/womens-state-pension-age-and-WASPI")</f>
+        <v/>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Women and the state pension age gap</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/more-contractors-see-the-need-for-pension-saving")</f>
+        <v/>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>More contractors see the need for pension saving</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/six-ideas-for-starting-your-business")</f>
+        <v/>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Six ideas for starting your business</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/reduce-and-appeal-your-business-rates")</f>
+        <v/>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Don’t let the business rates grind you down</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/old-and-young-both-missing-out-on-advice-opportunities")</f>
+        <v/>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Old and young both missing out on advice opportunities</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/women-have-30-per-cent-less-workplace-pension")</f>
+        <v/>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Women graduates have 30% less workplace pension</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/how-to-spot-estate-agents-tricks")</f>
+        <v/>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>How to spot estate agents’ tricks</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/are-you-a-40-year-old-pension-virgin")</f>
+        <v/>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Are you a 40-year-old pension virgin?</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/woodford-funds-to-wind-down-what-it-means-for-investors")</f>
+        <v/>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Woodford funds to wind down – what it means for investors</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/do-you-suffer-from-money-tunnel-vision")</f>
+        <v/>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Do you suffer from money tunnel vision?</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/small-business-funding-opportunities-open-up")</f>
+        <v/>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Small business funding opportunities open up</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/annuities-the-trickiest-pension-decision")</f>
+        <v/>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Annuities: the trickiest pension decision of all?</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/people-pay-less-into-pensions")</f>
+        <v/>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>People are paying less into their pensions (but more have them)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/income-protection-for-renters")</f>
+        <v/>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Renters aren’t using this simple safety net</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/earning-in-the-gig-economy")</f>
+        <v/>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Why moonlighters must be money-smart</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/homebuyers-taking-more-risks-to-get-on-property-ladder")</f>
+        <v/>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Homebuyers taking more risks to get on property ladder</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/pension-mugger-self-defence-class")</f>
+        <v/>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Pension mugger self-defence class</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/financial-exam-results-show-need-for-advice")</f>
+        <v/>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Financial ‘exam results’ show need for advice</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-to-avoid-inheritance-tax-iht")</f>
+        <v/>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>How to avoid inheritance tax (IHT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/investors-take-steps-to-protect-against-a-downturn")</f>
+        <v/>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Investors take steps to protect against a downturn</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/increase-state-pension-age-to-75-proposes-think-tank")</f>
+        <v/>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Increase state pension age to 75, proposes think-tank</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/pension-glossary-and-terminology-explained")</f>
+        <v/>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Pension Glossary: Learn to Speak Pension</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/virgin-boasts-the-longest-fixed-rate-mortgage")</f>
+        <v/>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Virgin boasts the longest fixed-rate mortgage</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/when-does-help-to-buy-end-what-will-replace-it")</f>
+        <v/>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>When does Help-to-Buy end &amp; what will replace it?</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/rhino-bond-a-milestone-in-ethical-investing")</f>
+        <v/>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Rhino bond a milestone in ethical investing</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/whats-the-point-of-your-business")</f>
+        <v/>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>The Pixar question: what’s the point of your business?</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/apathy-costing-savers-over-800m-a-year")</f>
+        <v/>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Apathy costing savers over £800m a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/does-your-business-need-shareholder-protection")</f>
+        <v/>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Does your business need shareholder protection?</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/drawdown-pensioners-unaware-of-risks-study-suggests")</f>
+        <v/>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Drawdown pensioners unaware of risks, study suggests</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/lifetime-isa-investors-losing-out-to-high-fees")</f>
+        <v/>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Lifetime ISA investors losing out to high fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/fraudster-steals-house")</f>
+        <v/>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Fraudster steals woman’s £850,000 house</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/enquiry-launched-into-leasehold-malpractice")</f>
+        <v/>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Enquiry launched into leasehold malpractice</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/financial-advice-and-the-fishing-rod-riddle")</f>
+        <v/>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Financial advice and the fishing rod riddle</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/investing-a-risky-business")</f>
+        <v/>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Investing – a risky business?</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/save-up-a-deposit-in-6-years")</f>
+        <v/>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>How to save up a deposit in 6 years (or less)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/put-pensions-into-renewables-says-minister")</f>
+        <v/>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Put pensions into renewables, says minister</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/credit-score-flaws-cost-it-boss-her-job")</f>
+        <v/>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Credit score flaws cost IT boss her job</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/billions-lost-in-forgotten-pensions")</f>
+        <v/>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Over £19 billion ‘lost’ in forgotten UK pensions</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/optimist-vs-pessimist-money")</f>
+        <v/>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Optimist vs pessimist – what does it mean for your money?</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/how-to-weather-an-interest-rate-rise")</f>
+        <v/>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>How to weather an interest rate rise</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/getting-harder-to-predict-state-pension")</f>
+        <v/>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>How accurate is my state pension forecast? The answer is, not very</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/a-french-twist-on-equity-release-arrives-in-the-uk")</f>
+        <v/>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>A French twist on equity release arrives in the UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/the-truth-about-japanese-knotweed")</f>
+        <v/>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>The truth about Japanese knotweed</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/landlord-who-cut-corners-forced-to-refund-rent")</f>
+        <v/>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Landlord who cut corners forced to refund rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/retire-at-55")</f>
+        <v/>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>How much pension pot do I need to retire at 55?</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/brexit-delay-spurs-the-housing-market")</f>
+        <v/>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Brexit delay spurs the housing market</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-your-child-can-retire-a-millionaire")</f>
+        <v/>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>How your child can retire a millionaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/is-this-the-retirement-of-the-future")</f>
+        <v/>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Is this the retirement of the future?</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-advice/6-ways-that-advisers-beat-robots")</f>
+        <v/>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>6 ways that advisers beat robots</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/over-55s-turn-to-equity-release")</f>
+        <v/>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Over-55s borrowing £11m a day against their homes</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/Top-10-investment-goals")</f>
+        <v/>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10 investment goals to aim for (and how)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/is-your-business-ready-for-digital-vat")</f>
+        <v/>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Is your business ready for digital VAT?</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/retirees-take-extra-care-with-pension-withdrawals")</f>
+        <v/>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Retirees take extra care with pension withdrawals</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-much-is-financial-advice")</f>
+        <v/>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>How much is financial advice? This app knows!</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/the-uks-mortgage-prisoners")</f>
+        <v/>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Helping out the UK’s ‘mortgage prisoners’</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/cashless-uk-may-come-too-soon")</f>
+        <v/>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Cashless UK may come too soon, experts warn</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/what-s-harming-your-mortgage-application")</f>
+        <v/>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>What’s harming your mortgage application?</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/retirement/advice-about-guidance-and-guidance-on-advice")</f>
+        <v/>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>What's the difference between guidance and advice?</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/protection/life-insurance-holders-risk-leaving-money-to-the-wrong-people")</f>
+        <v/>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Life insurance holders risk leaving money to the wrong people</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/mortgage-tips-to-have-you-walking-on-air")</f>
+        <v/>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>How can I improve my chances of getting a mortgage?</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/women-and-investing")</f>
+        <v/>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Why don't women invest more?</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/buy-to-let-yields-hit-three-year-low")</f>
+        <v/>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Buy-to-let yields hit three-year low</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/savers-missing-out-on-help-to-save")</f>
+        <v/>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Millions of Brits missing out on 50% savings boost</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/%C2%A32m-funding-Business-Basics-Fund-competition")</f>
+        <v/>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>£2m of funding up for grabs in Business Basics Fund competition</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/uk-housing-market-at-a-crossroads")</f>
+        <v/>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>UK housing market at a crossroads</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/your-3d-new-year-detox")</f>
+        <v/>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Your 3D New Year detox</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/no-deal-Brexit-pensions")</f>
+        <v/>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Will your pension be affected by a no-deal Brexit?</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/excuses-for-no-financial-plan")</f>
+        <v/>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>The top 5 excuses for dodging financial planning</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/surviving-the-dips-of-drawdown")</f>
+        <v/>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Riding the Ups and Downs of Drawdown</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/5-reasons-why-your-employees-are-leaving")</f>
+        <v/>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>5 reasons why your employees are leaving</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/what-to-do-with-a-frozen-pension-from-an-old-job")</f>
+        <v/>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>What to do with a ‘frozen’ pension from an old job</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/new-years-resolutions-with-real-solutions")</f>
+        <v/>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>New Year’s resolutions with real solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/6-amazing-money-spinners-that-worked")</f>
+        <v/>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>6 amazing money-spinners that worked</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/can-you-downsize-to-fund-your-retirement")</f>
+        <v/>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Can you downsize to fund your retirement?</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/one-day-to-save-your-pension")</f>
+        <v/>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>One day to save your pension</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-advice/ten-signs-you-need-a-financial-health-check")</f>
+        <v/>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Ten signs you need a financial health check</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/four-solutions-to-the-annuity-problem")</f>
+        <v/>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Four solutions to the annuity problem</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/fraud-warnings-over-pension-dashboard")</f>
+        <v/>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Fraud warnings over pension dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/your-two-minute-guide-to-dividends")</f>
+        <v/>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Your two-minute guide to dividends</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/why-your-business-needs-key-person-insurance")</f>
+        <v/>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Why your business needs key person insurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/peak-pension-transfer")</f>
+        <v/>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Have we reached ‘peak pension transfer’?</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-to-avoid-running-out-of-pension-savings")</f>
+        <v/>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>How to avoid running out of pension savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/pensions/how-to-beat-pension-provider-exit-fees")</f>
+        <v/>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>How to beat pension provider exit fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/every-tax-return-tells-a-story")</f>
+        <v/>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Tips on tax deductible expenses - from Sherlock!</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/pensions/pack-your-retirement-parachute")</f>
+        <v/>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Deferred annuities - your retirement parachute</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/pensions/your-pension-plane-or-helicopter")</f>
+        <v/>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Your pension – plane or helicopter?</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-planning/put-your-money-to-the-marshmallow-test")</f>
+        <v/>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Put your money to the marshmallow test</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/why-you-should-be-less-confident-with-money")</f>
+        <v/>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>The money confidence trick</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/be-a-woman-with-a-financial-plan")</f>
+        <v/>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Be a woman with a financial plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/students/how-to-survive-your-first-year-at-uni")</f>
+        <v/>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>How to survive your first year at Uni</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/top-10-ways-to-prepare-your-business-for-brexit")</f>
+        <v/>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Top 10 ways to prepare your business for Brexit</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/Bitcoin-and-cryptocurrencies")</f>
+        <v/>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Should you buy Bitcoin? A crash course in crypto</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/workplace-pension-top-tips")</f>
+        <v/>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Put your workplace pension into overdrive</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-best-to-invest")</f>
+        <v/>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>How best to invest?</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/accountant/employed-or-self-employed")</f>
+        <v/>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Employed or self-employed – which is better?</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/why-you-should-check-your-state-pension-now")</f>
+        <v/>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Why you should check your state pension now</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/students/5-tips-for-overseas-students-in-the-uk")</f>
+        <v/>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>5 tips for overseas students in the UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/how-to-be-a-small-business-with-big-benefits")</f>
+        <v/>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>How to be a small business with big benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/death-in-service-or-life-insurance")</f>
+        <v/>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Death in Service vs life insurance: which is better?</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/students/students-living-away-from-home")</f>
+        <v/>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>The students’ guide to living away from home</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/three-ways-to-cope-with-losing-buy-to-let-tax-relief")</f>
+        <v/>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Buy to Let Tax 2020 - 3 Ways to Cope with Losing Tax Relief</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/family-finances/buying-a-car")</f>
+        <v/>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Is it worth buying a car?</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/the-investment-risk-no-one-tells-you-about")</f>
+        <v/>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>The investment risk no-one tells you about</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/5-survival-tips-for-graduates")</f>
+        <v/>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>5 easy survival tips for recent graduates</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/child-critical-illness-cover")</f>
+        <v/>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Could your child’s illness hit your earnings?</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/rent-freedom-day")</f>
+        <v/>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Why the only real ‘rent freedom’ is when you buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/mortgages/mortgage-freedom-day-for-the-average-uk-homeowner")</f>
+        <v/>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Mortgage Freedom Day for the average UK homeowner</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/people-not-engaged-with-pensions")</f>
+        <v/>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>People ‘not engaged’ with pensions may have choices made for them</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/lottery-winner-pension")</f>
+        <v/>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>What this lottery winner can teach you about your pension</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/3-biggest-problems-for-contractors")</f>
+        <v/>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Contractor? Solve your 3 biggest problems</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/students/Beyond-uni-a-saving-guide")</f>
+        <v/>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Beyond uni: A saver’s guide</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <f>HYPERLINK("https://www.unbiased.co.uk/news/financial-adviser/pension-repayment-scandal")</f>
+        <v/>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>The pension repayment scandal in the making</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
